--- a/testData/testBeanFactory.xlsx
+++ b/testData/testBeanFactory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\LightweightFileObjectIO\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\MikeBeanUtils\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0EF1A3A-88F1-4E4C-80B4-A38871CB1DB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC89F24-5342-403C-A012-D67A9BCD6358}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41400" yWindow="3000" windowWidth="28800" windowHeight="15290"/>
+    <workbookView xWindow="1764" yWindow="2562" windowWidth="9966" windowHeight="7134" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testBeanFactory" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>iSt</t>
   </si>
@@ -52,12 +52,6 @@
     <t>bb</t>
   </si>
   <si>
-    <t>field1</t>
-  </si>
-  <si>
-    <t>field2</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -86,12 +80,24 @@
   </si>
   <si>
     <t>:TRR;;ER=</t>
+  </si>
+  <si>
+    <t>i2</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>bt</t>
+  </si>
+  <si>
+    <t>btt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -925,14 +931,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -943,34 +951,40 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>-12345</v>
       </c>
@@ -978,37 +992,43 @@
         <v>0.98770000000000002</v>
       </c>
       <c r="C2">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>66.649199999999993</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>96.081299999999999</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="b">
+        <v>0.66666000000000003</v>
+      </c>
+      <c r="G2">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="H2">
+        <v>45.1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="b">
+      <c r="L2" t="b">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>-12345</v>
       </c>
@@ -1016,37 +1036,43 @@
         <v>0.98770000000000002</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>-1</v>
       </c>
       <c r="D3">
-        <v>38.871000000000002</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>-100</v>
       </c>
       <c r="F3">
-        <v>30.2392</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="b">
+        <v>0.66659999999999997</v>
+      </c>
+      <c r="G3">
+        <v>-1.2</v>
+      </c>
+      <c r="H3">
+        <v>30.1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="b">
         <v>1</v>
       </c>
-      <c r="J3" t="b">
+      <c r="L3" t="b">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>-4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>-12345</v>
       </c>
@@ -1054,37 +1080,43 @@
         <v>0.98770000000000002</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>-2</v>
       </c>
       <c r="D4">
-        <v>87.063800000000001</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>64</v>
+        <v>1000</v>
       </c>
       <c r="F4">
-        <v>51.3294</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="b">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="G4">
+        <v>-1.3</v>
+      </c>
+      <c r="H4">
+        <v>15.1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="b">
         <v>1</v>
       </c>
-      <c r="J4" t="b">
+      <c r="L4" t="b">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>9</v>
-      </c>
-      <c r="L4" t="s">
-        <v>9</v>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>-12345</v>
       </c>
@@ -1092,37 +1124,43 @@
         <v>0.98770000000000002</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>-3</v>
       </c>
       <c r="D5">
-        <v>41.540300000000002</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>-1000</v>
       </c>
       <c r="F5">
-        <v>27.835100000000001</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="b">
+        <v>0.66</v>
+      </c>
+      <c r="G5">
+        <v>-1.4</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" t="b">
+      <c r="L5" t="b">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>9</v>
-      </c>
-      <c r="L5" t="s">
-        <v>9</v>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>-12345</v>
       </c>
@@ -1130,34 +1168,40 @@
         <v>0.98770000000000002</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>-4</v>
       </c>
       <c r="D6">
-        <v>38.636099999999999</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>91</v>
+        <v>10000</v>
       </c>
       <c r="F6">
-        <v>95.400700000000001</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="b">
+        <v>0.6</v>
+      </c>
+      <c r="G6">
+        <v>-1.5</v>
+      </c>
+      <c r="H6">
+        <v>-14.9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="J6" t="b">
+      <c r="L6" t="b">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>9</v>
-      </c>
-      <c r="L6" t="s">
-        <v>9</v>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
